--- a/MyFirstFolder/WorkTime.xlsx
+++ b/MyFirstFolder/WorkTime.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Начало</t>
   </si>
@@ -371,7 +370,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +450,9 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/MyFirstFolder/WorkTime.xlsx
+++ b/MyFirstFolder/WorkTime.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Начало</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>14.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,40 +386,34 @@
         <v>41523</v>
       </c>
       <c r="D1" s="1">
-        <v>41524</v>
+        <v>41526</v>
       </c>
       <c r="E1" s="1">
-        <v>41525</v>
+        <v>41527</v>
       </c>
       <c r="F1" s="1">
-        <v>41526</v>
+        <v>41528</v>
       </c>
       <c r="G1" s="1">
-        <v>41527</v>
+        <v>41529</v>
       </c>
       <c r="H1" s="1">
-        <v>41528</v>
+        <v>41530</v>
       </c>
       <c r="I1" s="1">
-        <v>41529</v>
+        <v>41533</v>
       </c>
       <c r="J1" s="1">
-        <v>41530</v>
+        <v>41534</v>
       </c>
       <c r="K1" s="1">
-        <v>41531</v>
+        <v>41535</v>
       </c>
       <c r="L1" s="1">
-        <v>41532</v>
+        <v>41536</v>
       </c>
       <c r="M1" s="1">
-        <v>41533</v>
-      </c>
-      <c r="N1" s="1">
-        <v>41534</v>
-      </c>
-      <c r="O1" s="1">
-        <v>41535</v>
+        <v>41537</v>
       </c>
       <c r="P1" s="1">
         <v>41536</v>
@@ -443,6 +440,9 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">

--- a/MyFirstFolder/WorkTime.xlsx
+++ b/MyFirstFolder/WorkTime.xlsx
@@ -16,21 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Начало</t>
   </si>
   <si>
     <t>Конец</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>9.00</t>
   </si>
 </sst>
 </file>
@@ -66,9 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -373,7 +365,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,25 +427,28 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="B2" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.375</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="B3" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.52083333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/MyFirstFolder/WorkTime.xlsx
+++ b/MyFirstFolder/WorkTime.xlsx
@@ -11,30 +11,51 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Начало</t>
   </si>
   <si>
     <t>Конец</t>
   </si>
+  <si>
+    <t>Часы</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -53,14 +74,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -362,97 +582,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15">
         <v>41522</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="15">
         <v>41523</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>41526</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="16">
         <v>41527</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>41528</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="16">
         <v>41529</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>41530</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="16">
         <v>41533</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="2">
         <v>41534</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="16">
         <v>41535</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>41536</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="16">
         <v>41537</v>
       </c>
-      <c r="P1" s="1">
-        <v>41536</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>41537</v>
-      </c>
-      <c r="R1" s="1">
-        <v>41538</v>
-      </c>
-      <c r="S1" s="1">
-        <v>41539</v>
-      </c>
-      <c r="T1" s="1">
+      <c r="N1" s="16">
         <v>41540</v>
       </c>
+      <c r="O1" s="2">
+        <v>41541</v>
+      </c>
+      <c r="P1" s="16">
+        <v>41542</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>41543</v>
+      </c>
+      <c r="R1" s="3">
+        <v>41544</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>0.375</v>
       </c>
+      <c r="E2" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.52083333333333337</v>
       </c>
+      <c r="E3" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <f>SUM(B3-B2)</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="C4" s="14">
+        <f t="shared" ref="C4:T4" si="0">SUM(C3-C2)</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
